--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slitrk2</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Slitrk2</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -534,7 +534,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07818933333333332</v>
+        <v>0.01213966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234568</v>
+        <v>0.036419</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>0.1492315100222222</v>
+        <v>0.05172557388244445</v>
       </c>
       <c r="R2">
-        <v>1.3430835902</v>
+        <v>0.4655301649420001</v>
       </c>
       <c r="S2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="T2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07818933333333332</v>
+        <v>0.01213966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234568</v>
+        <v>0.036419</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
-        <v>1.604820194232</v>
+        <v>0.249164193981</v>
       </c>
       <c r="R3">
-        <v>14.443381748088</v>
+        <v>2.242477745829</v>
       </c>
       <c r="S3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="T3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07818933333333332</v>
+        <v>0.01213966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234568</v>
+        <v>0.036419</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>0.6817495298506666</v>
+        <v>0.1084204636631111</v>
       </c>
       <c r="R4">
-        <v>6.135745768656</v>
+        <v>0.9757841729679999</v>
       </c>
       <c r="S4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="T4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07818933333333332</v>
+        <v>0.01213966666666667</v>
       </c>
       <c r="H5">
-        <v>0.234568</v>
+        <v>0.036419</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>1.638447159008</v>
+        <v>0.07839765574855556</v>
       </c>
       <c r="R5">
-        <v>14.746024431072</v>
+        <v>0.705578901737</v>
       </c>
       <c r="S5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="T5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07818933333333332</v>
+        <v>0.01213966666666667</v>
       </c>
       <c r="H6">
-        <v>0.234568</v>
+        <v>0.036419</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>0.128373671336</v>
+        <v>0.02365456538833333</v>
       </c>
       <c r="R6">
-        <v>1.155363042024</v>
+        <v>0.212891088495</v>
       </c>
       <c r="S6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="T6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07818933333333332</v>
+        <v>0.01213966666666667</v>
       </c>
       <c r="H7">
-        <v>0.234568</v>
+        <v>0.036419</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>0.9291129014933333</v>
+        <v>0.05926360278177777</v>
       </c>
       <c r="R7">
-        <v>8.362016113439999</v>
+        <v>0.5333724250359999</v>
       </c>
       <c r="S7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="T7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
     </row>
   </sheetData>
